--- a/Modello/nuovi modelli/inputTesiOriginali/test1/Soluzioni-1.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test1/Soluzioni-1.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
-  <workbookPr filterPrivacy="true" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="6"/>
   </bookViews>
@@ -276,12 +276,12 @@
     <definedName name="SBM_DMU_8">'SBM-DUAL'!$I$2:$I$7</definedName>
     <definedName name="SBM_DMU_9">'SBM-DUAL'!$J$2:$J$7</definedName>
   </definedNames>
-  <calcPr calcId="122211" fullCalcOnLoad="true"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="88">
   <si>
     <t>ANSPs</t>
   </si>
@@ -546,27 +546,12 @@
   <si>
     <t>1</t>
   </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0.229269</t>
-  </si>
-  <si>
-    <t>0.31977</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>Optimum found</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -612,31 +597,39 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -960,27 +953,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL51"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:AL49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="true" customWidth="true"/>
-    <col min="2" max="5" width="14.21875" bestFit="true" customWidth="true"/>
-    <col min="6" max="6" width="17.44140625" bestFit="true" customWidth="true"/>
-    <col min="7" max="18" width="14.21875" bestFit="true" customWidth="true"/>
-    <col min="19" max="19" width="14.33203125" bestFit="true" customWidth="true"/>
-    <col min="20" max="28" width="14.21875" bestFit="true" customWidth="true"/>
-    <col min="29" max="29" width="16.5546875" bestFit="true" customWidth="true"/>
-    <col min="30" max="30" width="20.77734375" bestFit="true" customWidth="true"/>
-    <col min="31" max="38" width="14.21875" bestFit="true" customWidth="true"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="18" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="28" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="31" max="38" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8">
+    <row r="1" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1096,7 +1089,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
@@ -1137,7 +1130,7 @@
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -1179,7 +1172,7 @@
       <c r="AK3" s="8"/>
       <c r="AL3" s="8"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -1221,7 +1214,7 @@
       <c r="AK4" s="8"/>
       <c r="AL4" s="8"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -1263,7 +1256,7 @@
       <c r="AK5" s="8"/>
       <c r="AL5" s="8"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -1305,7 +1298,7 @@
       <c r="AK6" s="8"/>
       <c r="AL6" s="8"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>43</v>
       </c>
@@ -1347,7 +1340,7 @@
       <c r="AK7" s="8"/>
       <c r="AL7" s="8"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>44</v>
       </c>
@@ -1389,7 +1382,7 @@
       <c r="AK8" s="8"/>
       <c r="AL8" s="8"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>45</v>
       </c>
@@ -1431,7 +1424,7 @@
       <c r="AK9" s="8"/>
       <c r="AL9" s="8"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>46</v>
       </c>
@@ -1473,7 +1466,7 @@
       <c r="AK10" s="8"/>
       <c r="AL10" s="8"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
@@ -1515,7 +1508,7 @@
       <c r="AK11" s="8"/>
       <c r="AL11" s="8"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>48</v>
       </c>
@@ -1557,7 +1550,7 @@
       <c r="AK12" s="8"/>
       <c r="AL12" s="8"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
@@ -1599,7 +1592,7 @@
       <c r="AK13" s="8"/>
       <c r="AL13" s="8"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>50</v>
       </c>
@@ -1641,7 +1634,7 @@
       <c r="AK14" s="8"/>
       <c r="AL14" s="8"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>51</v>
       </c>
@@ -1683,7 +1676,7 @@
       <c r="AK15" s="8"/>
       <c r="AL15" s="8"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>52</v>
       </c>
@@ -1725,7 +1718,7 @@
       <c r="AK16" s="8"/>
       <c r="AL16" s="8"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>53</v>
       </c>
@@ -1767,7 +1760,7 @@
       <c r="AK17" s="8"/>
       <c r="AL17" s="8"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
@@ -1809,7 +1802,7 @@
       <c r="AK18" s="8"/>
       <c r="AL18" s="8"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>55</v>
       </c>
@@ -1851,7 +1844,7 @@
       <c r="AK19" s="8"/>
       <c r="AL19" s="8"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>56</v>
       </c>
@@ -1893,7 +1886,7 @@
       <c r="AK20" s="8"/>
       <c r="AL20" s="8"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>57</v>
       </c>
@@ -1935,7 +1928,7 @@
       <c r="AK21" s="8"/>
       <c r="AL21" s="8"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>58</v>
       </c>
@@ -1977,7 +1970,7 @@
       <c r="AK22" s="8"/>
       <c r="AL22" s="8"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>59</v>
       </c>
@@ -2019,7 +2012,7 @@
       <c r="AK23" s="8"/>
       <c r="AL23" s="8"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>60</v>
       </c>
@@ -2061,7 +2054,7 @@
       <c r="AK24" s="8"/>
       <c r="AL24" s="8"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>61</v>
       </c>
@@ -2103,7 +2096,7 @@
       <c r="AK25" s="8"/>
       <c r="AL25" s="8"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>62</v>
       </c>
@@ -2145,7 +2138,7 @@
       <c r="AK26" s="8"/>
       <c r="AL26" s="8"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>63</v>
       </c>
@@ -2187,7 +2180,7 @@
       <c r="AK27" s="8"/>
       <c r="AL27" s="8"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>64</v>
       </c>
@@ -2229,7 +2222,7 @@
       <c r="AK28" s="8"/>
       <c r="AL28" s="8"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>65</v>
       </c>
@@ -2271,7 +2264,7 @@
       <c r="AK29" s="8"/>
       <c r="AL29" s="8"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>66</v>
       </c>
@@ -2313,7 +2306,7 @@
       <c r="AK30" s="8"/>
       <c r="AL30" s="8"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>67</v>
       </c>
@@ -2355,7 +2348,7 @@
       <c r="AK31" s="8"/>
       <c r="AL31" s="8"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>68</v>
       </c>
@@ -2397,7 +2390,7 @@
       <c r="AK32" s="8"/>
       <c r="AL32" s="8"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>69</v>
       </c>
@@ -2439,7 +2432,7 @@
       <c r="AK33" s="8"/>
       <c r="AL33" s="8"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>70</v>
       </c>
@@ -2481,7 +2474,7 @@
       <c r="AK34" s="8"/>
       <c r="AL34" s="8"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>71</v>
       </c>
@@ -2523,7 +2516,7 @@
       <c r="AK35" s="8"/>
       <c r="AL35" s="8"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>72</v>
       </c>
@@ -2565,7 +2558,7 @@
       <c r="AK36" s="8"/>
       <c r="AL36" s="8"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>73</v>
       </c>
@@ -2607,7 +2600,7 @@
       <c r="AK37" s="8"/>
       <c r="AL37" s="8"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>74</v>
       </c>
@@ -2649,7 +2642,7 @@
       <c r="AK38" s="8"/>
       <c r="AL38" s="8"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>75</v>
       </c>
@@ -2691,7 +2684,7 @@
       <c r="AK39" s="8"/>
       <c r="AL39" s="8"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>76</v>
       </c>
@@ -2733,7 +2726,7 @@
       <c r="AK40" s="8"/>
       <c r="AL40" s="8"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>77</v>
       </c>
@@ -2775,7 +2768,7 @@
       <c r="AK41" s="8"/>
       <c r="AL41" s="8"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>78</v>
       </c>
@@ -2817,7 +2810,7 @@
       <c r="AK42" s="8"/>
       <c r="AL42" s="8"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>79</v>
       </c>
@@ -2859,7 +2852,7 @@
       <c r="AK43" s="9"/>
       <c r="AL43" s="9"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>84</v>
       </c>
@@ -2901,7 +2894,7 @@
       <c r="AK44" s="2"/>
       <c r="AL44" s="2"/>
     </row>
-    <row r="51">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>87</v>
       </c>
@@ -2913,38 +2906,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL44"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:AL230"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="true" customWidth="true"/>
-    <col min="2" max="2" width="11.109375" bestFit="true" customWidth="true"/>
-    <col min="3" max="3" width="14.88671875" bestFit="true" customWidth="true"/>
-    <col min="4" max="4" width="11.109375" bestFit="true" customWidth="true"/>
-    <col min="5" max="5" width="14.88671875" bestFit="true" customWidth="true"/>
-    <col min="6" max="6" width="17.77734375" bestFit="true" customWidth="true"/>
-    <col min="7" max="9" width="14.88671875" bestFit="true" customWidth="true"/>
-    <col min="10" max="10" width="11.6640625" bestFit="true" customWidth="true"/>
-    <col min="11" max="14" width="11.109375" bestFit="true" customWidth="true"/>
-    <col min="15" max="18" width="14.88671875" bestFit="true" customWidth="true"/>
-    <col min="19" max="19" width="15.21875" bestFit="true" customWidth="true"/>
-    <col min="20" max="21" width="14.88671875" bestFit="true" customWidth="true"/>
-    <col min="22" max="23" width="11.109375" bestFit="true" customWidth="true"/>
-    <col min="24" max="24" width="14.88671875" bestFit="true" customWidth="true"/>
-    <col min="25" max="28" width="11.109375" bestFit="true" customWidth="true"/>
-    <col min="29" max="29" width="16.88671875" bestFit="true" customWidth="true"/>
-    <col min="30" max="30" width="19.6640625" bestFit="true" customWidth="true"/>
-    <col min="31" max="35" width="14.88671875" bestFit="true" customWidth="true"/>
-    <col min="36" max="36" width="15.21875" bestFit="true" customWidth="true"/>
-    <col min="37" max="38" width="14.88671875" bestFit="true" customWidth="true"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="28" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="35" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8">
+    <row r="1" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3060,7 +3053,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
@@ -3102,7 +3095,7 @@
       <c r="AK2" s="5"/>
       <c r="AL2" s="5"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -3144,7 +3137,7 @@
       <c r="AK3" s="5"/>
       <c r="AL3" s="5"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -3186,7 +3179,7 @@
       <c r="AK4" s="5"/>
       <c r="AL4" s="5"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -3228,7 +3221,7 @@
       <c r="AK5" s="5"/>
       <c r="AL5" s="5"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -3270,7 +3263,7 @@
       <c r="AK6" s="5"/>
       <c r="AL6" s="5"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>43</v>
       </c>
@@ -3312,7 +3305,7 @@
       <c r="AK7" s="5"/>
       <c r="AL7" s="5"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>44</v>
       </c>
@@ -3354,7 +3347,7 @@
       <c r="AK8" s="5"/>
       <c r="AL8" s="5"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>45</v>
       </c>
@@ -3396,7 +3389,7 @@
       <c r="AK9" s="5"/>
       <c r="AL9" s="5"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>46</v>
       </c>
@@ -3438,7 +3431,7 @@
       <c r="AK10" s="5"/>
       <c r="AL10" s="5"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
@@ -3480,7 +3473,7 @@
       <c r="AK11" s="5"/>
       <c r="AL11" s="5"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>48</v>
       </c>
@@ -3522,7 +3515,7 @@
       <c r="AK12" s="5"/>
       <c r="AL12" s="5"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
@@ -3564,7 +3557,7 @@
       <c r="AK13" s="5"/>
       <c r="AL13" s="5"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>50</v>
       </c>
@@ -3606,7 +3599,7 @@
       <c r="AK14" s="5"/>
       <c r="AL14" s="5"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>51</v>
       </c>
@@ -3648,7 +3641,7 @@
       <c r="AK15" s="5"/>
       <c r="AL15" s="5"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>52</v>
       </c>
@@ -3690,7 +3683,7 @@
       <c r="AK16" s="5"/>
       <c r="AL16" s="5"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>53</v>
       </c>
@@ -3732,7 +3725,7 @@
       <c r="AK17" s="5"/>
       <c r="AL17" s="5"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
@@ -3774,7 +3767,7 @@
       <c r="AK18" s="5"/>
       <c r="AL18" s="5"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>55</v>
       </c>
@@ -3816,7 +3809,7 @@
       <c r="AK19" s="5"/>
       <c r="AL19" s="5"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>56</v>
       </c>
@@ -3858,7 +3851,7 @@
       <c r="AK20" s="5"/>
       <c r="AL20" s="5"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>57</v>
       </c>
@@ -3900,7 +3893,7 @@
       <c r="AK21" s="5"/>
       <c r="AL21" s="5"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>58</v>
       </c>
@@ -3942,7 +3935,7 @@
       <c r="AK22" s="5"/>
       <c r="AL22" s="5"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>59</v>
       </c>
@@ -3984,7 +3977,7 @@
       <c r="AK23" s="5"/>
       <c r="AL23" s="5"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>60</v>
       </c>
@@ -4026,7 +4019,7 @@
       <c r="AK24" s="5"/>
       <c r="AL24" s="5"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>61</v>
       </c>
@@ -4068,7 +4061,7 @@
       <c r="AK25" s="5"/>
       <c r="AL25" s="5"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>62</v>
       </c>
@@ -4110,7 +4103,7 @@
       <c r="AK26" s="5"/>
       <c r="AL26" s="5"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>63</v>
       </c>
@@ -4152,7 +4145,7 @@
       <c r="AK27" s="5"/>
       <c r="AL27" s="5"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>64</v>
       </c>
@@ -4194,7 +4187,7 @@
       <c r="AK28" s="5"/>
       <c r="AL28" s="5"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>65</v>
       </c>
@@ -4236,7 +4229,7 @@
       <c r="AK29" s="5"/>
       <c r="AL29" s="5"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>66</v>
       </c>
@@ -4278,7 +4271,7 @@
       <c r="AK30" s="5"/>
       <c r="AL30" s="5"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>67</v>
       </c>
@@ -4320,7 +4313,7 @@
       <c r="AK31" s="5"/>
       <c r="AL31" s="5"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>68</v>
       </c>
@@ -4362,7 +4355,7 @@
       <c r="AK32" s="5"/>
       <c r="AL32" s="5"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>69</v>
       </c>
@@ -4404,7 +4397,7 @@
       <c r="AK33" s="5"/>
       <c r="AL33" s="5"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>70</v>
       </c>
@@ -4446,7 +4439,7 @@
       <c r="AK34" s="5"/>
       <c r="AL34" s="5"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>71</v>
       </c>
@@ -4488,7 +4481,7 @@
       <c r="AK35" s="5"/>
       <c r="AL35" s="5"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>72</v>
       </c>
@@ -4530,7 +4523,7 @@
       <c r="AK36" s="5"/>
       <c r="AL36" s="5"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>73</v>
       </c>
@@ -4572,7 +4565,7 @@
       <c r="AK37" s="5"/>
       <c r="AL37" s="5"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>74</v>
       </c>
@@ -4614,7 +4607,7 @@
       <c r="AK38" s="5"/>
       <c r="AL38" s="5"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>75</v>
       </c>
@@ -4656,7 +4649,7 @@
       <c r="AK39" s="6"/>
       <c r="AL39" s="6"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>76</v>
       </c>
@@ -4698,7 +4691,7 @@
       <c r="AK40" s="7"/>
       <c r="AL40" s="7"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>77</v>
       </c>
@@ -4740,7 +4733,7 @@
       <c r="AK41" s="5"/>
       <c r="AL41" s="5"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>78</v>
       </c>
@@ -4782,7 +4775,7 @@
       <c r="AK42" s="5"/>
       <c r="AL42" s="5"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>79</v>
       </c>
@@ -4824,7 +4817,7 @@
       <c r="AK43" s="4"/>
       <c r="AL43" s="4"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>84</v>
       </c>
@@ -4872,20 +4865,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL44"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:AL161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="true" customWidth="true"/>
-    <col min="2" max="38" width="14.88671875" bestFit="true" customWidth="true"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="38" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8">
+    <row r="1" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5001,7 +4994,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
@@ -5043,7 +5036,7 @@
       <c r="AK2" s="5"/>
       <c r="AL2" s="5"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -5085,7 +5078,7 @@
       <c r="AK3" s="5"/>
       <c r="AL3" s="5"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -5127,7 +5120,7 @@
       <c r="AK4" s="5"/>
       <c r="AL4" s="5"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -5169,7 +5162,7 @@
       <c r="AK5" s="5"/>
       <c r="AL5" s="5"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -5211,7 +5204,7 @@
       <c r="AK6" s="5"/>
       <c r="AL6" s="5"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>43</v>
       </c>
@@ -5253,7 +5246,7 @@
       <c r="AK7" s="5"/>
       <c r="AL7" s="5"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>44</v>
       </c>
@@ -5295,7 +5288,7 @@
       <c r="AK8" s="5"/>
       <c r="AL8" s="5"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>45</v>
       </c>
@@ -5337,7 +5330,7 @@
       <c r="AK9" s="5"/>
       <c r="AL9" s="5"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>46</v>
       </c>
@@ -5379,7 +5372,7 @@
       <c r="AK10" s="5"/>
       <c r="AL10" s="5"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
@@ -5421,7 +5414,7 @@
       <c r="AK11" s="5"/>
       <c r="AL11" s="5"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>48</v>
       </c>
@@ -5463,7 +5456,7 @@
       <c r="AK12" s="5"/>
       <c r="AL12" s="5"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
@@ -5505,7 +5498,7 @@
       <c r="AK13" s="5"/>
       <c r="AL13" s="5"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>50</v>
       </c>
@@ -5547,7 +5540,7 @@
       <c r="AK14" s="5"/>
       <c r="AL14" s="5"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>51</v>
       </c>
@@ -5589,7 +5582,7 @@
       <c r="AK15" s="5"/>
       <c r="AL15" s="5"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>52</v>
       </c>
@@ -5631,7 +5624,7 @@
       <c r="AK16" s="5"/>
       <c r="AL16" s="5"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>53</v>
       </c>
@@ -5673,7 +5666,7 @@
       <c r="AK17" s="5"/>
       <c r="AL17" s="5"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
@@ -5715,7 +5708,7 @@
       <c r="AK18" s="5"/>
       <c r="AL18" s="5"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>55</v>
       </c>
@@ -5757,7 +5750,7 @@
       <c r="AK19" s="5"/>
       <c r="AL19" s="5"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>56</v>
       </c>
@@ -5799,7 +5792,7 @@
       <c r="AK20" s="5"/>
       <c r="AL20" s="5"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>57</v>
       </c>
@@ -5841,7 +5834,7 @@
       <c r="AK21" s="5"/>
       <c r="AL21" s="5"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>58</v>
       </c>
@@ -5883,7 +5876,7 @@
       <c r="AK22" s="5"/>
       <c r="AL22" s="5"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>59</v>
       </c>
@@ -5925,7 +5918,7 @@
       <c r="AK23" s="5"/>
       <c r="AL23" s="5"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>60</v>
       </c>
@@ -5967,7 +5960,7 @@
       <c r="AK24" s="5"/>
       <c r="AL24" s="5"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>61</v>
       </c>
@@ -6009,7 +6002,7 @@
       <c r="AK25" s="5"/>
       <c r="AL25" s="5"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>62</v>
       </c>
@@ -6051,7 +6044,7 @@
       <c r="AK26" s="5"/>
       <c r="AL26" s="5"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>63</v>
       </c>
@@ -6093,7 +6086,7 @@
       <c r="AK27" s="5"/>
       <c r="AL27" s="5"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>64</v>
       </c>
@@ -6135,7 +6128,7 @@
       <c r="AK28" s="5"/>
       <c r="AL28" s="5"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>65</v>
       </c>
@@ -6177,7 +6170,7 @@
       <c r="AK29" s="5"/>
       <c r="AL29" s="5"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>66</v>
       </c>
@@ -6219,7 +6212,7 @@
       <c r="AK30" s="5"/>
       <c r="AL30" s="5"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>67</v>
       </c>
@@ -6261,7 +6254,7 @@
       <c r="AK31" s="5"/>
       <c r="AL31" s="5"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>68</v>
       </c>
@@ -6303,7 +6296,7 @@
       <c r="AK32" s="5"/>
       <c r="AL32" s="5"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>69</v>
       </c>
@@ -6345,7 +6338,7 @@
       <c r="AK33" s="5"/>
       <c r="AL33" s="5"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>70</v>
       </c>
@@ -6387,7 +6380,7 @@
       <c r="AK34" s="5"/>
       <c r="AL34" s="5"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>71</v>
       </c>
@@ -6429,7 +6422,7 @@
       <c r="AK35" s="5"/>
       <c r="AL35" s="5"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>72</v>
       </c>
@@ -6471,7 +6464,7 @@
       <c r="AK36" s="5"/>
       <c r="AL36" s="5"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>73</v>
       </c>
@@ -6513,7 +6506,7 @@
       <c r="AK37" s="5"/>
       <c r="AL37" s="5"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>74</v>
       </c>
@@ -6555,7 +6548,7 @@
       <c r="AK38" s="5"/>
       <c r="AL38" s="5"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>75</v>
       </c>
@@ -6597,7 +6590,7 @@
       <c r="AK39" s="6"/>
       <c r="AL39" s="6"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>76</v>
       </c>
@@ -6639,7 +6632,7 @@
       <c r="AK40" s="7"/>
       <c r="AL40" s="7"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>77</v>
       </c>
@@ -6681,7 +6674,7 @@
       <c r="AK41" s="5"/>
       <c r="AL41" s="5"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>78</v>
       </c>
@@ -6723,7 +6716,7 @@
       <c r="AK42" s="5"/>
       <c r="AL42" s="5"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>79</v>
       </c>
@@ -6765,7 +6758,7 @@
       <c r="AK43" s="4"/>
       <c r="AL43" s="4"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>84</v>
       </c>
@@ -6813,30 +6806,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL44"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:AL44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="true" customWidth="true"/>
-    <col min="2" max="9" width="14.88671875" bestFit="true" customWidth="true"/>
-    <col min="10" max="10" width="11.6640625" bestFit="true" customWidth="true"/>
-    <col min="11" max="13" width="14.88671875" bestFit="true" customWidth="true"/>
-    <col min="14" max="14" width="11.109375" bestFit="true" customWidth="true"/>
-    <col min="15" max="21" width="14.88671875" bestFit="true" customWidth="true"/>
-    <col min="22" max="22" width="11.109375" bestFit="true" customWidth="true"/>
-    <col min="23" max="24" width="14.88671875" bestFit="true" customWidth="true"/>
-    <col min="25" max="26" width="11.109375" bestFit="true" customWidth="true"/>
-    <col min="27" max="27" width="14.88671875" bestFit="true" customWidth="true"/>
-    <col min="28" max="28" width="11.109375" bestFit="true" customWidth="true"/>
-    <col min="29" max="38" width="14.88671875" bestFit="true" customWidth="true"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="21" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="38" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8">
+    <row r="1" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6952,7 +6945,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
@@ -6994,7 +6987,7 @@
       <c r="AK2" s="5"/>
       <c r="AL2" s="5"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -7036,7 +7029,7 @@
       <c r="AK3" s="5"/>
       <c r="AL3" s="5"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -7078,7 +7071,7 @@
       <c r="AK4" s="5"/>
       <c r="AL4" s="5"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -7120,7 +7113,7 @@
       <c r="AK5" s="5"/>
       <c r="AL5" s="5"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -7162,7 +7155,7 @@
       <c r="AK6" s="5"/>
       <c r="AL6" s="5"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>43</v>
       </c>
@@ -7204,7 +7197,7 @@
       <c r="AK7" s="5"/>
       <c r="AL7" s="5"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>44</v>
       </c>
@@ -7246,7 +7239,7 @@
       <c r="AK8" s="5"/>
       <c r="AL8" s="5"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>45</v>
       </c>
@@ -7288,7 +7281,7 @@
       <c r="AK9" s="5"/>
       <c r="AL9" s="5"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>46</v>
       </c>
@@ -7330,7 +7323,7 @@
       <c r="AK10" s="5"/>
       <c r="AL10" s="5"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
@@ -7372,7 +7365,7 @@
       <c r="AK11" s="5"/>
       <c r="AL11" s="5"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>48</v>
       </c>
@@ -7414,7 +7407,7 @@
       <c r="AK12" s="5"/>
       <c r="AL12" s="5"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
@@ -7456,7 +7449,7 @@
       <c r="AK13" s="5"/>
       <c r="AL13" s="5"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>50</v>
       </c>
@@ -7498,7 +7491,7 @@
       <c r="AK14" s="5"/>
       <c r="AL14" s="5"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>51</v>
       </c>
@@ -7540,7 +7533,7 @@
       <c r="AK15" s="5"/>
       <c r="AL15" s="5"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>52</v>
       </c>
@@ -7582,7 +7575,7 @@
       <c r="AK16" s="5"/>
       <c r="AL16" s="5"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>53</v>
       </c>
@@ -7624,7 +7617,7 @@
       <c r="AK17" s="5"/>
       <c r="AL17" s="5"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
@@ -7666,7 +7659,7 @@
       <c r="AK18" s="5"/>
       <c r="AL18" s="5"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>55</v>
       </c>
@@ -7708,7 +7701,7 @@
       <c r="AK19" s="5"/>
       <c r="AL19" s="5"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>56</v>
       </c>
@@ -7750,7 +7743,7 @@
       <c r="AK20" s="5"/>
       <c r="AL20" s="5"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>57</v>
       </c>
@@ -7792,7 +7785,7 @@
       <c r="AK21" s="5"/>
       <c r="AL21" s="5"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>58</v>
       </c>
@@ -7834,7 +7827,7 @@
       <c r="AK22" s="5"/>
       <c r="AL22" s="5"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>59</v>
       </c>
@@ -7876,7 +7869,7 @@
       <c r="AK23" s="5"/>
       <c r="AL23" s="5"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>60</v>
       </c>
@@ -7918,7 +7911,7 @@
       <c r="AK24" s="5"/>
       <c r="AL24" s="5"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>61</v>
       </c>
@@ -7960,7 +7953,7 @@
       <c r="AK25" s="5"/>
       <c r="AL25" s="5"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>62</v>
       </c>
@@ -8002,7 +7995,7 @@
       <c r="AK26" s="5"/>
       <c r="AL26" s="5"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>63</v>
       </c>
@@ -8044,7 +8037,7 @@
       <c r="AK27" s="5"/>
       <c r="AL27" s="5"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>64</v>
       </c>
@@ -8086,7 +8079,7 @@
       <c r="AK28" s="5"/>
       <c r="AL28" s="5"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>65</v>
       </c>
@@ -8128,7 +8121,7 @@
       <c r="AK29" s="5"/>
       <c r="AL29" s="5"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>66</v>
       </c>
@@ -8170,7 +8163,7 @@
       <c r="AK30" s="5"/>
       <c r="AL30" s="5"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>67</v>
       </c>
@@ -8212,7 +8205,7 @@
       <c r="AK31" s="5"/>
       <c r="AL31" s="5"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>68</v>
       </c>
@@ -8254,7 +8247,7 @@
       <c r="AK32" s="5"/>
       <c r="AL32" s="5"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>69</v>
       </c>
@@ -8296,7 +8289,7 @@
       <c r="AK33" s="5"/>
       <c r="AL33" s="5"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>70</v>
       </c>
@@ -8338,7 +8331,7 @@
       <c r="AK34" s="5"/>
       <c r="AL34" s="5"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>71</v>
       </c>
@@ -8380,7 +8373,7 @@
       <c r="AK35" s="5"/>
       <c r="AL35" s="5"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>72</v>
       </c>
@@ -8422,7 +8415,7 @@
       <c r="AK36" s="5"/>
       <c r="AL36" s="5"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>73</v>
       </c>
@@ -8464,7 +8457,7 @@
       <c r="AK37" s="5"/>
       <c r="AL37" s="5"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>74</v>
       </c>
@@ -8506,7 +8499,7 @@
       <c r="AK38" s="5"/>
       <c r="AL38" s="5"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>75</v>
       </c>
@@ -8548,7 +8541,7 @@
       <c r="AK39" s="6"/>
       <c r="AL39" s="6"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>76</v>
       </c>
@@ -8590,7 +8583,7 @@
       <c r="AK40" s="7"/>
       <c r="AL40" s="7"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>77</v>
       </c>
@@ -8632,7 +8625,7 @@
       <c r="AK41" s="5"/>
       <c r="AL41" s="5"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>78</v>
       </c>
@@ -8674,7 +8667,7 @@
       <c r="AK42" s="5"/>
       <c r="AL42" s="5"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>79</v>
       </c>
@@ -8716,7 +8709,7 @@
       <c r="AK43" s="4"/>
       <c r="AL43" s="4"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>84</v>
       </c>
@@ -8764,20 +8757,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL44"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:AL69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="true" customWidth="true"/>
-    <col min="2" max="38" width="14.88671875" bestFit="true" customWidth="true"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="38" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8">
+    <row r="1" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8893,7 +8886,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
@@ -8935,7 +8928,7 @@
       <c r="AK2" s="5"/>
       <c r="AL2" s="5"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -8977,7 +8970,7 @@
       <c r="AK3" s="5"/>
       <c r="AL3" s="5"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -9019,7 +9012,7 @@
       <c r="AK4" s="5"/>
       <c r="AL4" s="5"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -9061,7 +9054,7 @@
       <c r="AK5" s="5"/>
       <c r="AL5" s="5"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -9103,7 +9096,7 @@
       <c r="AK6" s="5"/>
       <c r="AL6" s="5"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>43</v>
       </c>
@@ -9145,7 +9138,7 @@
       <c r="AK7" s="5"/>
       <c r="AL7" s="5"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>44</v>
       </c>
@@ -9187,7 +9180,7 @@
       <c r="AK8" s="5"/>
       <c r="AL8" s="5"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>45</v>
       </c>
@@ -9229,7 +9222,7 @@
       <c r="AK9" s="5"/>
       <c r="AL9" s="5"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>46</v>
       </c>
@@ -9271,7 +9264,7 @@
       <c r="AK10" s="5"/>
       <c r="AL10" s="5"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
@@ -9313,7 +9306,7 @@
       <c r="AK11" s="5"/>
       <c r="AL11" s="5"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>48</v>
       </c>
@@ -9355,7 +9348,7 @@
       <c r="AK12" s="5"/>
       <c r="AL12" s="5"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
@@ -9397,7 +9390,7 @@
       <c r="AK13" s="5"/>
       <c r="AL13" s="5"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>50</v>
       </c>
@@ -9439,7 +9432,7 @@
       <c r="AK14" s="5"/>
       <c r="AL14" s="5"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>51</v>
       </c>
@@ -9481,7 +9474,7 @@
       <c r="AK15" s="5"/>
       <c r="AL15" s="5"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>52</v>
       </c>
@@ -9523,7 +9516,7 @@
       <c r="AK16" s="5"/>
       <c r="AL16" s="5"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>53</v>
       </c>
@@ -9565,7 +9558,7 @@
       <c r="AK17" s="5"/>
       <c r="AL17" s="5"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
@@ -9607,7 +9600,7 @@
       <c r="AK18" s="5"/>
       <c r="AL18" s="5"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>55</v>
       </c>
@@ -9649,7 +9642,7 @@
       <c r="AK19" s="5"/>
       <c r="AL19" s="5"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>56</v>
       </c>
@@ -9691,7 +9684,7 @@
       <c r="AK20" s="5"/>
       <c r="AL20" s="5"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>57</v>
       </c>
@@ -9733,7 +9726,7 @@
       <c r="AK21" s="5"/>
       <c r="AL21" s="5"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>58</v>
       </c>
@@ -9775,7 +9768,7 @@
       <c r="AK22" s="5"/>
       <c r="AL22" s="5"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>59</v>
       </c>
@@ -9817,7 +9810,7 @@
       <c r="AK23" s="5"/>
       <c r="AL23" s="5"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>60</v>
       </c>
@@ -9859,7 +9852,7 @@
       <c r="AK24" s="5"/>
       <c r="AL24" s="5"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>61</v>
       </c>
@@ -9901,7 +9894,7 @@
       <c r="AK25" s="5"/>
       <c r="AL25" s="5"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>62</v>
       </c>
@@ -9943,7 +9936,7 @@
       <c r="AK26" s="5"/>
       <c r="AL26" s="5"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>63</v>
       </c>
@@ -9985,7 +9978,7 @@
       <c r="AK27" s="5"/>
       <c r="AL27" s="5"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>64</v>
       </c>
@@ -10027,7 +10020,7 @@
       <c r="AK28" s="5"/>
       <c r="AL28" s="5"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>65</v>
       </c>
@@ -10069,7 +10062,7 @@
       <c r="AK29" s="5"/>
       <c r="AL29" s="5"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>66</v>
       </c>
@@ -10111,7 +10104,7 @@
       <c r="AK30" s="5"/>
       <c r="AL30" s="5"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>67</v>
       </c>
@@ -10153,7 +10146,7 @@
       <c r="AK31" s="5"/>
       <c r="AL31" s="5"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>68</v>
       </c>
@@ -10195,7 +10188,7 @@
       <c r="AK32" s="5"/>
       <c r="AL32" s="5"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>69</v>
       </c>
@@ -10237,7 +10230,7 @@
       <c r="AK33" s="5"/>
       <c r="AL33" s="5"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>70</v>
       </c>
@@ -10279,7 +10272,7 @@
       <c r="AK34" s="5"/>
       <c r="AL34" s="5"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>71</v>
       </c>
@@ -10321,7 +10314,7 @@
       <c r="AK35" s="5"/>
       <c r="AL35" s="5"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>72</v>
       </c>
@@ -10363,7 +10356,7 @@
       <c r="AK36" s="5"/>
       <c r="AL36" s="5"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>73</v>
       </c>
@@ -10405,7 +10398,7 @@
       <c r="AK37" s="5"/>
       <c r="AL37" s="5"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>74</v>
       </c>
@@ -10447,7 +10440,7 @@
       <c r="AK38" s="5"/>
       <c r="AL38" s="5"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>75</v>
       </c>
@@ -10489,7 +10482,7 @@
       <c r="AK39" s="6"/>
       <c r="AL39" s="6"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>76</v>
       </c>
@@ -10531,7 +10524,7 @@
       <c r="AK40" s="7"/>
       <c r="AL40" s="7"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>77</v>
       </c>
@@ -10573,7 +10566,7 @@
       <c r="AK41" s="5"/>
       <c r="AL41" s="5"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>78</v>
       </c>
@@ -10615,7 +10608,7 @@
       <c r="AK42" s="5"/>
       <c r="AL42" s="5"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>79</v>
       </c>
@@ -10657,7 +10650,7 @@
       <c r="AK43" s="4"/>
       <c r="AL43" s="4"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>84</v>
       </c>
@@ -10705,20 +10698,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL7"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:AL11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" bestFit="true" customWidth="true"/>
-    <col min="2" max="38" width="14.88671875" bestFit="true" customWidth="true"/>
+    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="38" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8">
+    <row r="1" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10834,7 +10827,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>83</v>
       </c>
@@ -10876,7 +10869,7 @@
       <c r="AK2" s="5"/>
       <c r="AL2" s="5"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>82</v>
       </c>
@@ -10918,7 +10911,7 @@
       <c r="AK3" s="5"/>
       <c r="AL3" s="5"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>80</v>
       </c>
@@ -10960,7 +10953,7 @@
       <c r="AK4" s="5"/>
       <c r="AL4" s="5"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>81</v>
       </c>
@@ -11002,7 +10995,7 @@
       <c r="AK5" s="5"/>
       <c r="AL5" s="5"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>79</v>
       </c>
@@ -11044,7 +11037,7 @@
       <c r="AK6" s="6"/>
       <c r="AL6" s="6"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>84</v>
       </c>
@@ -11092,20 +11085,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL42"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:AL61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="true" customWidth="true"/>
-    <col min="2" max="38" width="13.88671875" bestFit="true" customWidth="true"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="38" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8">
+    <row r="1" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11221,14 +11214,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -11265,14 +11256,12 @@
       <c r="AK2" s="5"/>
       <c r="AL2" s="5"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -11309,14 +11298,12 @@
       <c r="AK3" s="5"/>
       <c r="AL3" s="5"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -11353,14 +11340,12 @@
       <c r="AK4" s="5"/>
       <c r="AL4" s="5"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -11397,14 +11382,12 @@
       <c r="AK5" s="5"/>
       <c r="AL5" s="5"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -11441,14 +11424,12 @@
       <c r="AK6" s="5"/>
       <c r="AL6" s="5"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -11485,14 +11466,12 @@
       <c r="AK7" s="5"/>
       <c r="AL7" s="5"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -11529,14 +11508,12 @@
       <c r="AK8" s="5"/>
       <c r="AL8" s="5"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -11573,14 +11550,12 @@
       <c r="AK9" s="5"/>
       <c r="AL9" s="5"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -11617,14 +11592,12 @@
       <c r="AK10" s="5"/>
       <c r="AL10" s="5"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -11661,14 +11634,12 @@
       <c r="AK11" s="5"/>
       <c r="AL11" s="5"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -11705,14 +11676,12 @@
       <c r="AK12" s="5"/>
       <c r="AL12" s="5"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -11749,14 +11718,12 @@
       <c r="AK13" s="5"/>
       <c r="AL13" s="5"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -11793,14 +11760,12 @@
       <c r="AK14" s="5"/>
       <c r="AL14" s="5"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -11837,14 +11802,12 @@
       <c r="AK15" s="5"/>
       <c r="AL15" s="5"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -11881,14 +11844,12 @@
       <c r="AK16" s="5"/>
       <c r="AL16" s="5"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B17" s="5"/>
-      <c r="C17" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -11925,14 +11886,12 @@
       <c r="AK17" s="5"/>
       <c r="AL17" s="5"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B18" s="5"/>
-      <c r="C18" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -11969,14 +11928,12 @@
       <c r="AK18" s="5"/>
       <c r="AL18" s="5"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B19" s="5"/>
-      <c r="C19" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -12013,14 +11970,12 @@
       <c r="AK19" s="5"/>
       <c r="AL19" s="5"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B20" s="5"/>
-      <c r="C20" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -12057,14 +12012,12 @@
       <c r="AK20" s="5"/>
       <c r="AL20" s="5"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B21" s="5"/>
-      <c r="C21" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -12101,14 +12054,12 @@
       <c r="AK21" s="5"/>
       <c r="AL21" s="5"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="5"/>
-      <c r="C22" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -12145,14 +12096,12 @@
       <c r="AK22" s="5"/>
       <c r="AL22" s="5"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="C23" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -12189,14 +12138,12 @@
       <c r="AK23" s="5"/>
       <c r="AL23" s="5"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B24" s="5"/>
-      <c r="C24" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -12233,14 +12180,12 @@
       <c r="AK24" s="5"/>
       <c r="AL24" s="5"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B25" s="5"/>
-      <c r="C25" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -12277,14 +12222,12 @@
       <c r="AK25" s="5"/>
       <c r="AL25" s="5"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B26" s="5"/>
-      <c r="C26" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -12321,14 +12264,12 @@
       <c r="AK26" s="5"/>
       <c r="AL26" s="5"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="C27" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -12365,14 +12306,12 @@
       <c r="AK27" s="5"/>
       <c r="AL27" s="5"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B28" s="5"/>
-      <c r="C28" s="5" t="s">
-        <v>89</v>
-      </c>
+      <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -12409,14 +12348,12 @@
       <c r="AK28" s="5"/>
       <c r="AL28" s="5"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="5"/>
-      <c r="C29" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -12453,14 +12390,12 @@
       <c r="AK29" s="5"/>
       <c r="AL29" s="5"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B30" s="5"/>
-      <c r="C30" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -12497,14 +12432,12 @@
       <c r="AK30" s="5"/>
       <c r="AL30" s="5"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B31" s="5"/>
-      <c r="C31" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -12541,14 +12474,12 @@
       <c r="AK31" s="5"/>
       <c r="AL31" s="5"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B32" s="5"/>
-      <c r="C32" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -12585,14 +12516,12 @@
       <c r="AK32" s="5"/>
       <c r="AL32" s="5"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B33" s="5"/>
-      <c r="C33" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -12629,14 +12558,12 @@
       <c r="AK33" s="5"/>
       <c r="AL33" s="5"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B34" s="5"/>
-      <c r="C34" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -12673,14 +12600,12 @@
       <c r="AK34" s="5"/>
       <c r="AL34" s="5"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B35" s="5"/>
-      <c r="C35" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -12717,14 +12642,12 @@
       <c r="AK35" s="5"/>
       <c r="AL35" s="5"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B36" s="5"/>
-      <c r="C36" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -12761,14 +12684,12 @@
       <c r="AK36" s="5"/>
       <c r="AL36" s="5"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B37" s="5"/>
-      <c r="C37" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -12805,14 +12726,12 @@
       <c r="AK37" s="5"/>
       <c r="AL37" s="5"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B38" s="5"/>
-      <c r="C38" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -12849,14 +12768,12 @@
       <c r="AK38" s="5"/>
       <c r="AL38" s="5"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B39" s="5"/>
-      <c r="C39" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -12893,14 +12810,12 @@
       <c r="AK39" s="5"/>
       <c r="AL39" s="5"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B40" s="5"/>
-      <c r="C40" s="5" t="s">
-        <v>91</v>
-      </c>
+      <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -12937,14 +12852,12 @@
       <c r="AK40" s="5"/>
       <c r="AL40" s="5"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B41" s="5"/>
-      <c r="C41" s="5" t="s">
-        <v>91</v>
-      </c>
+      <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -12981,14 +12894,12 @@
       <c r="AK41" s="5"/>
       <c r="AL41" s="5"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B42" s="6"/>
-      <c r="C42" s="6" t="s">
-        <v>92</v>
-      </c>
+      <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>

--- a/Modello/nuovi modelli/inputTesiOriginali/test1/Soluzioni-1.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test1/Soluzioni-1.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19917" uniqueCount="887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59701" uniqueCount="887">
   <si>
     <t>ANSPs</t>
   </si>

--- a/Modello/nuovi modelli/inputTesiOriginali/test1/Soluzioni-1.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test1/Soluzioni-1.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59701" uniqueCount="887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80647" uniqueCount="887">
   <si>
     <t>ANSPs</t>
   </si>
@@ -31361,7 +31361,7 @@
         <v>88</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>88</v>
@@ -31376,7 +31376,7 @@
         <v>88</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>88</v>
@@ -31391,7 +31391,7 @@
         <v>88</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="O14" s="5" t="s">
         <v>88</v>
@@ -31403,7 +31403,7 @@
         <v>88</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="S14" s="5" t="s">
         <v>88</v>
@@ -31415,7 +31415,7 @@
         <v>88</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="W14" s="5" t="s">
         <v>88</v>
@@ -31430,7 +31430,7 @@
         <v>88</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="AB14" s="5" t="s">
         <v>88</v>
@@ -31448,10 +31448,10 @@
         <v>88</v>
       </c>
       <c r="AG14" s="5" t="s">
-        <v>752</v>
+        <v>739</v>
       </c>
       <c r="AH14" s="5" t="s">
-        <v>781</v>
+        <v>768</v>
       </c>
       <c r="AI14" s="5" t="s">
         <v>88</v>
@@ -31460,7 +31460,7 @@
         <v>88</v>
       </c>
       <c r="AK14" s="5" t="s">
-        <v>861</v>
+        <v>850</v>
       </c>
       <c r="AL14" s="5" t="s">
         <v>88</v>
@@ -32643,7 +32643,7 @@
         <v>88</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>88</v>
@@ -32652,34 +32652,34 @@
         <v>88</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>88</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="N25" s="5" t="s">
         <v>88</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="S25" s="5" t="s">
         <v>88</v>
@@ -32688,7 +32688,7 @@
         <v>88</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="V25" s="5" t="s">
         <v>88</v>
@@ -32700,7 +32700,7 @@
         <v>88</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="Z25" s="5" t="s">
         <v>88</v>
@@ -32724,10 +32724,10 @@
         <v>88</v>
       </c>
       <c r="AG25" s="5" t="s">
-        <v>753</v>
+        <v>740</v>
       </c>
       <c r="AH25" s="5" t="s">
-        <v>782</v>
+        <v>769</v>
       </c>
       <c r="AI25" s="5" t="s">
         <v>88</v>
@@ -32736,10 +32736,10 @@
         <v>88</v>
       </c>
       <c r="AK25" s="5" t="s">
-        <v>862</v>
+        <v>851</v>
       </c>
       <c r="AL25" s="5" t="s">
-        <v>885</v>
+        <v>876</v>
       </c>
     </row>
     <row r="26">
@@ -32747,7 +32747,7 @@
         <v>62</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>88</v>
@@ -32765,7 +32765,7 @@
         <v>88</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>88</v>
@@ -32819,7 +32819,7 @@
         <v>88</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="AA26" s="5" t="s">
         <v>88</v>
@@ -32837,7 +32837,7 @@
         <v>88</v>
       </c>
       <c r="AF26" s="5" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="AG26" s="5" t="s">
         <v>88</v>
@@ -32849,7 +32849,7 @@
         <v>88</v>
       </c>
       <c r="AJ26" s="5" t="s">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="AK26" s="5" t="s">
         <v>88</v>
@@ -32979,73 +32979,73 @@
         <v>64</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>88</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="R28" s="5" t="s">
         <v>88</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="Y28" s="5" t="s">
         <v>88</v>
@@ -33054,34 +33054,34 @@
         <v>88</v>
       </c>
       <c r="AA28" s="5" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="AC28" s="5" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="AD28" s="5" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="AE28" s="5" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="AF28" s="5" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="AG28" s="5" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="AH28" s="5" t="s">
-        <v>783</v>
+        <v>770</v>
       </c>
       <c r="AI28" s="5" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="AJ28" s="5" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
       <c r="AK28" s="5" t="s">
         <v>88</v>
@@ -34255,115 +34255,115 @@
         <v>79</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="Q39" s="5" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="R39" s="5" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="S39" s="5" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="T39" s="5" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="U39" s="5" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="V39" s="5" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="W39" s="5" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="X39" s="5" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="Y39" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="Z39" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="AA39" s="5" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="AB39" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="AC39" s="5" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="AD39" s="5" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="AE39" s="5" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="AF39" s="5" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="AG39" s="5" t="s">
-        <v>755</v>
+        <v>742</v>
       </c>
       <c r="AH39" s="5" t="s">
-        <v>784</v>
+        <v>771</v>
       </c>
       <c r="AI39" s="5" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="AJ39" s="5" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="AK39" s="5" t="s">
-        <v>863</v>
+        <v>852</v>
       </c>
       <c r="AL39" s="5" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
     </row>
     <row r="40">
@@ -34371,115 +34371,115 @@
         <v>85</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="Q40" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="R40" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="S40" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="T40" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="U40" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="V40" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="W40" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="X40" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="Y40" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="Z40" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="AA40" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="AB40" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="AC40" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="AD40" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="AE40" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="AF40" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="AG40" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="AH40" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="AI40" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="AJ40" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="AK40" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="AL40" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41">
@@ -34487,115 +34487,115 @@
         <v>86</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>118</v>
+        <v>208</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>118</v>
+        <v>234</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>118</v>
+        <v>260</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>118</v>
+        <v>287</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>118</v>
+        <v>315</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>118</v>
+        <v>329</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>118</v>
+        <v>341</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>118</v>
+        <v>355</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>118</v>
+        <v>389</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>118</v>
+        <v>418</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>118</v>
+        <v>444</v>
       </c>
       <c r="R41" s="5" t="s">
-        <v>118</v>
+        <v>470</v>
       </c>
       <c r="S41" s="5" t="s">
-        <v>118</v>
+        <v>497</v>
       </c>
       <c r="T41" s="5" t="s">
-        <v>118</v>
+        <v>520</v>
       </c>
       <c r="U41" s="5" t="s">
-        <v>118</v>
+        <v>544</v>
       </c>
       <c r="V41" s="5" t="s">
-        <v>118</v>
+        <v>572</v>
       </c>
       <c r="W41" s="5" t="s">
-        <v>118</v>
+        <v>585</v>
       </c>
       <c r="X41" s="5" t="s">
-        <v>118</v>
+        <v>608</v>
       </c>
       <c r="Y41" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="Z41" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="AA41" s="5" t="s">
-        <v>118</v>
+        <v>628</v>
       </c>
       <c r="AB41" s="5" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="AC41" s="5" t="s">
-        <v>118</v>
+        <v>649</v>
       </c>
       <c r="AD41" s="5" t="s">
-        <v>118</v>
+        <v>672</v>
       </c>
       <c r="AE41" s="5" t="s">
-        <v>118</v>
+        <v>691</v>
       </c>
       <c r="AF41" s="5" t="s">
-        <v>118</v>
+        <v>715</v>
       </c>
       <c r="AG41" s="5" t="s">
-        <v>118</v>
+        <v>742</v>
       </c>
       <c r="AH41" s="5" t="s">
-        <v>118</v>
+        <v>771</v>
       </c>
       <c r="AI41" s="5" t="s">
-        <v>118</v>
+        <v>799</v>
       </c>
       <c r="AJ41" s="5" t="s">
-        <v>118</v>
+        <v>825</v>
       </c>
       <c r="AK41" s="5" t="s">
-        <v>118</v>
+        <v>852</v>
       </c>
       <c r="AL41" s="5" t="s">
-        <v>118</v>
+        <v>877</v>
       </c>
     </row>
     <row r="42">
